--- a/shared/tables/processing/principal_component_analysis.xlsx
+++ b/shared/tables/processing/principal_component_analysis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="200">
   <si>
     <t>output_file</t>
   </si>
@@ -597,6 +597,24 @@
   </si>
   <si>
     <t>comp_count</t>
+  </si>
+  <si>
+    <t>HIGLINT</t>
+  </si>
+  <si>
+    <t>COASTZ</t>
+  </si>
+  <si>
+    <t>ATMFAIL</t>
+  </si>
+  <si>
+    <t>WQSF_lsb_HISOLZEN</t>
+  </si>
+  <si>
+    <t>WQSF_lsb_LAND</t>
+  </si>
+  <si>
+    <t>cloud_in_thin_cirrus</t>
   </si>
 </sst>
 </file>
@@ -962,12 +980,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A40:XFD44"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,8 +1102,8 @@
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
+      <c r="D6" t="s">
+        <v>31</v>
       </c>
       <c r="G6" t="s">
         <v>148</v>
@@ -1186,8 +1204,8 @@
       <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>33</v>
+      <c r="D12" t="s">
+        <v>31</v>
       </c>
       <c r="G12" t="s">
         <v>154</v>
@@ -1255,7 +1273,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="E16" s="4"/>
       <c r="G16" s="4" t="s">
@@ -1299,7 +1317,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="E18" s="4"/>
       <c r="G18" s="4" t="s">
@@ -1321,7 +1339,7 @@
         <v>59</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>60</v>
+        <v>195</v>
       </c>
       <c r="E19" s="4"/>
       <c r="G19" s="4" t="s">
@@ -1431,7 +1449,7 @@
         <v>72</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>52</v>
+        <v>196</v>
       </c>
       <c r="E24" s="4"/>
       <c r="G24" s="4" t="s">
@@ -1504,7 +1522,7 @@
         <v>80</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>165</v>
@@ -1521,7 +1539,7 @@
         <v>85</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>166</v>
@@ -1538,7 +1556,7 @@
         <v>85</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>88</v>
+        <v>198</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>167</v>
@@ -1546,71 +1564,77 @@
     </row>
     <row r="31" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>170</v>
-      </c>
+      <c r="A33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33"/>
+      <c r="G33" t="s">
+        <v>174</v>
+      </c>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
     </row>
     <row r="34" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E34"/>
       <c r="G34" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="H34"/>
       <c r="I34"/>
@@ -1618,62 +1642,65 @@
       <c r="K34"/>
       <c r="L34"/>
     </row>
-    <row r="35" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="B35" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
-      </c>
-      <c r="E35"/>
+        <v>116</v>
+      </c>
       <c r="G35" t="s">
-        <v>190</v>
-      </c>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" t="s">
-        <v>103</v>
-      </c>
-      <c r="D36" t="s">
-        <v>116</v>
-      </c>
-      <c r="G36" t="s">
-        <v>175</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="G36" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>119</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>109</v>
+      <c r="A37" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="E37" s="4"/>
       <c r="G37" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -1685,21 +1712,21 @@
       <c r="O37" s="4"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D38" s="5" t="s">
+      <c r="A38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>121</v>
       </c>
       <c r="E38" s="4"/>
       <c r="G38" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -1711,21 +1738,21 @@
       <c r="O38" s="4"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>127</v>
+      <c r="A39" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>129</v>
+        <v>5</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="E39" s="4"/>
       <c r="G39" s="4" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -1737,22 +1764,8 @@
       <c r="O39" s="4"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="E40" s="4"/>
-      <c r="G40" s="4" t="s">
-        <v>185</v>
-      </c>
+      <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -1833,18 +1846,6 @@
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
